--- a/docss/trend/serbia/E_huntington.xlsx
+++ b/docss/trend/serbia/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\serbia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\serbia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,10 +1559,13 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D17"/>
+      <selection activeCell="B1" sqref="B1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1583,13 +1586,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>2.0428495481610298E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="7">
-        <v>2.4504998698830605E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D2" s="7">
-        <v>1.4116518199443817E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1600,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>5.0535175018012524E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C3" s="7">
-        <v>2.2610316053032875E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>7.0774199441075325E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1614,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>3.8156485185027122E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C4" s="7">
-        <v>2.2450217977166176E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>5.3771734237670898E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1628,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>4.1677945293486118E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C5" s="7">
-        <v>3.157462552189827E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>5.180196650326252E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1642,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>0.17274080822244287</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="C6" s="7">
-        <v>0.22393040731549263</v>
+        <v>0.224</v>
       </c>
       <c r="D6" s="7">
-        <v>0.12887923046946526</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1656,13 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>7.4774895329028368E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C7" s="7">
-        <v>2.767203189432621E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D7" s="7">
-        <v>0.11676149535924196</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1670,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>6.6047891974449158E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C8" s="7">
-        <v>5.6248584762215614E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D8" s="7">
-        <v>7.5529247522354126E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1684,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>9.4907553866505623E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C9" s="7">
-        <v>8.7585031986236572E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D9" s="7">
-        <v>0.10211682692170143</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1698,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>4.4080033898353577E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C10" s="7">
-        <v>4.6674607321619987E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D10" s="7">
-        <v>4.1895924136042595E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1712,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>4.6300317160785198E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>8.8030140846967697E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1726,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>4.7124824486672878E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C12" s="7">
-        <v>5.2057558670639992E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D12" s="7">
-        <v>4.070008359849453E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1740,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>7.2722835466265678E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="C13" s="7">
-        <v>2.8856579214334488E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D13" s="7">
-        <v>0.11150570027530193</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1754,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>5.7750403415411711E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C14" s="7">
-        <v>7.1308190934360027E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D14" s="7">
-        <v>4.7620533034205437E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1768,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>0.15345621947199106</v>
+        <v>0.153</v>
       </c>
       <c r="C15" s="7">
-        <v>0.18436779454350471</v>
+        <v>0.184</v>
       </c>
       <c r="D15" s="7">
-        <v>0.11845878884196281</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1782,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>6.0348290950059891E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C16" s="7">
-        <v>9.9492321722209454E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D16" s="7">
-        <v>2.6879655197262764E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1796,13 @@
         <v>2014</v>
       </c>
       <c r="B17" s="7">
-        <v>4.2413313873112202E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C17" s="7">
-        <v>6.4972072839736938E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D17" s="7">
-        <v>2.1636513993144035E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
